--- a/Docs/GPS-distance file.xlsx
+++ b/Docs/GPS-distance file.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>lat</t>
   </si>
@@ -39,13 +39,61 @@
   </si>
   <si>
     <t>47.495587, 2.065424</t>
+  </si>
+  <si>
+    <t>Pierrefitte-sur-Sauldre</t>
+  </si>
+  <si>
+    <t>47.495518, 2.065403</t>
+  </si>
+  <si>
+    <t>Rotate the view</t>
+  </si>
+  <si>
+    <t>Ctrl + mouse drag for full 3D</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>Tilt the view</t>
+  </si>
+  <si>
+    <t>From your phone (Location History) Update Learn more</t>
+  </si>
+  <si>
+    <t>Zoom</t>
+  </si>
+  <si>
+    <t>Show slider Hide slider</t>
+  </si>
+  <si>
+    <t>Add a photo</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>View externalJs Version:Business listings provided by ®Business listings provided by Information provided by Business listings provided by ™Business listings distributed by ™Imagery ©2018 DigitalGlobe, Map data ©2018 Google</t>
+  </si>
+  <si>
+    <t>France3D Earth view is not availableTerms</t>
+  </si>
+  <si>
+    <t>Send feedbackReport a problemReport a problemReport a problemEdit the map</t>
+  </si>
+  <si>
+    <t>20 m</t>
+  </si>
+  <si>
+    <t>47.495241, 2.065817</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,16 +115,59 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FFB3B3B3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -84,14 +175,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -107,6 +252,619 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1" descr="https://www.google.fr/maps/vt/pb=!1m5!1m4!1i15!2i33143!3i22917!4i128!2m2!1e0!3i440142095!3m7!2sen!3sfr!5e1105!12m1!1e47!12m1!1e3!4e0!5m2!1e0!5f2!23i4111425!23i1358757!23i1358902"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4159250"/>
+          <a:ext cx="2438400" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2" descr="https://www.google.fr/maps/vt/pb=!1m5!1m4!1i15!2i33143!3i22918!4i128!2m2!1e0!3i440142095!3m7!2sen!3sfr!5e1105!12m1!1e47!12m1!1e3!4e0!5m2!1e0!5f2!23i4111425!23i1358757!23i1358902"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2444750" y="4159250"/>
+          <a:ext cx="2438400" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3" descr="https://www.google.fr/maps/vt/pb=!1m5!1m4!1i15!2i33144!3i22917!4i128!2m2!1e0!3i440142095!3m7!2sen!3sfr!5e1105!12m1!1e47!12m1!1e3!4e0!5m2!1e0!5f2!23i4111425!23i1358757!23i1358902"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4889500" y="4159250"/>
+          <a:ext cx="2438400" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4" descr="https://www.google.fr/maps/vt/pb=!1m5!1m4!1i15!2i33144!3i22918!4i128!2m2!1e0!3i440142095!3m7!2sen!3sfr!5e1105!12m1!1e47!12m1!1e3!4e0!5m2!1e0!5f2!23i4111425!23i1358757!23i1358902"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7334250" y="4159250"/>
+          <a:ext cx="2438400" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1029" name="AutoShape 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5448300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="AutoShape 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="311150" y="5448300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 7" descr="https://www.google.fr/maps/vt/pb=!1m5!1m4!1i15!2i33143!3i22917!4i128!2m2!1e0!3i440142095!3m7!2sen!3sfr!5e1105!12m1!1e47!12m1!1e3!4e0!5m2!1e0!5f2!23i4111425!23i1358757!23i1358902"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4933950"/>
+          <a:ext cx="2438400" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 8" descr="https://www.google.fr/maps/vt/pb=!1m5!1m4!1i15!2i33143!3i22918!4i128!2m2!1e0!3i440142095!3m7!2sen!3sfr!5e1105!12m1!1e47!12m1!1e3!4e0!5m2!1e0!5f2!23i4111425!23i1358757!23i1358902"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2444750" y="4933950"/>
+          <a:ext cx="2438400" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 9" descr="https://www.google.fr/maps/vt/pb=!1m5!1m4!1i15!2i33144!3i22917!4i128!2m2!1e0!3i440142095!3m7!2sen!3sfr!5e1105!12m1!1e47!12m1!1e3!4e0!5m2!1e0!5f2!23i4111425!23i1358757!23i1358902"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4889500" y="4933950"/>
+          <a:ext cx="2438400" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Image 10" descr="https://www.google.fr/maps/vt/pb=!1m5!1m4!1i15!2i33144!3i22918!4i128!2m2!1e0!3i440142095!3m7!2sen!3sfr!5e1105!12m1!1e47!12m1!1e3!4e0!5m2!1e0!5f2!23i4111425!23i1358757!23i1358902"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7334250" y="4933950"/>
+          <a:ext cx="2438400" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1035" name="AutoShape 11"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6223000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1036" name="AutoShape 12"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="311150" y="6223000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -393,10 +1151,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>47.495581000000001</v>
+        <v>47.495517999999997</v>
       </c>
       <c r="C2">
-        <v>2.0654279999999998</v>
+        <v>2.0654029999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -404,14 +1162,14 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>47.495277999999999</v>
+        <v>47.495241</v>
       </c>
       <c r="C3" s="1">
-        <v>2.0658319999999999</v>
+        <v>2.065817</v>
       </c>
       <c r="D3">
         <f>ACOS(SIN(RADIANS(B2))*SIN(RADIANS(B3))+COS(RADIANS(B2))*COS(RADIANS(B3))*COS(RADIANS(C2-C3)))*6378*1000</f>
-        <v>45.397506078357793</v>
+        <v>43.821607079917783</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -419,8 +1177,117 @@
         <v>4</v>
       </c>
     </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>41300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>41300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="32" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="10"/>
+    </row>
+    <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="71.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="26" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Docs/GPS-distance file.xlsx
+++ b/Docs/GPS-distance file.xlsx
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1172,6 +1172,16 @@
         <v>43.821607079917783</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <f>B2-B3</f>
+        <v>2.7699999999697411E-4</v>
+      </c>
+      <c r="C4">
+        <f>C2-C3</f>
+        <v>-4.1400000000013648E-4</v>
+      </c>
+    </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>4</v>
